--- a/biology/Botanique/Trypanochloridaceae/Trypanochloridaceae.xlsx
+++ b/biology/Botanique/Trypanochloridaceae/Trypanochloridaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Trypanochloridaceae sont une famille d'algues de l'embranchement des Ochrophyta de la classe des Xanthophyceae et de l’ordre des Mischococcales.
-Le Trypanochloris se développe exclusivement dans les couches périphériques de la coquille du genre Clausilia, un petit gastéropode terrestre. Ce genre probablement très répandu n'a été signalé qu'en Europe centrale[1].
+Le Trypanochloris se développe exclusivement dans les couches périphériques de la coquille du genre Clausilia, un petit gastéropode terrestre. Ce genre probablement très répandu n'a été signalé qu'en Europe centrale.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Trypanochloris, du grec τρυπανον / trypanon, « tarière ; forer, creuser », et χλωρηίς / chloriís, « vert », en référence à la tendance de cet organisme à s'installer (par creusement) dans la coquille calcaire de mollusques, notamment dans le gastéropode Clausilia comme le décrit ce genre le phycologue et malacologue Lothar Geitler en 1935[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Trypanochloris, du grec τρυπανον / trypanon, « tarière ; forer, creuser », et χλωρηίς / chloriís, « vert », en référence à la tendance de cet organisme à s'installer (par creusement) dans la coquille calcaire de mollusques, notamment dans le gastéropode Clausilia comme le décrit ce genre le phycologue et malacologue Lothar Geitler en 1935.
 </t>
         </is>
       </c>
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -569,9 +585,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Trypanochloris sont des organismes unicellulaires faisant jusqu'à 60 µm de diamètre. les jeunes cellules grossièrement arrondies, deviennent étoilées à l'âge adulte avec des prolongements irrégulièrement cylindriques, parfois dichotomiques, rayonnant plus ou moins à partir de la région de la cellule contenant le noyau[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Trypanochloris sont des organismes unicellulaires faisant jusqu'à 60 µm de diamètre. les jeunes cellules grossièrement arrondies, deviennent étoilées à l'âge adulte avec des prolongements irrégulièrement cylindriques, parfois dichotomiques, rayonnant plus ou moins à partir de la région de la cellule contenant le noyau.
 </t>
         </is>
       </c>
@@ -600,9 +618,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (7 avril 2022)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (7 avril 2022) :
 Trypanochloris Geitler, 1935
 			Deux jeunes cellules de Trypanochloris clausiliae.
 			Chronologie du développement de Trypanochloris.
